--- a/data/vintage_data/data_20090811.xlsx
+++ b/data/vintage_data/data_20090811.xlsx
@@ -14717,9 +14717,7 @@
       <c r="V101" t="n">
         <v>-1.230203918114391</v>
       </c>
-      <c r="W101" t="n">
-        <v>9.626799999999999</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -21912,16 +21910,16 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-52.83701838548696</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -29122,7 +29120,9 @@
       <c r="O101" t="n">
         <v>947.0113073551283</v>
       </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-52.83701838548696</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -29133,9 +29133,7 @@
       <c r="V101" t="n">
         <v>-1.230203918114391</v>
       </c>
-      <c r="W101" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/vintage_data/data_20090811.xlsx
+++ b/data/vintage_data/data_20090811.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -544,9 +554,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.1372953558228524</v>
       </c>
     </row>
@@ -608,9 +624,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W3" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0585619023566217</v>
       </c>
     </row>
@@ -672,9 +694,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W4" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.3</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.2561233676117278</v>
       </c>
     </row>
@@ -736,9 +764,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W5" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.2</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.9294994864702675</v>
       </c>
     </row>
@@ -800,9 +834,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W6" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>1.136886190987389</v>
       </c>
     </row>
@@ -864,9 +904,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W7" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.8024461665134646</v>
       </c>
     </row>
@@ -928,9 +974,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W8" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.4574238561276663</v>
       </c>
     </row>
@@ -992,9 +1044,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W9" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.5089154227391779</v>
       </c>
     </row>
@@ -1056,9 +1114,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.535950991194442</v>
       </c>
     </row>
@@ -1120,9 +1184,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>-0.2790726782977443</v>
       </c>
     </row>
@@ -1184,9 +1254,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W12" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.1112838271730546</v>
       </c>
     </row>
@@ -1248,9 +1324,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W13" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.2338340968445509</v>
       </c>
     </row>
@@ -1312,9 +1394,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W14" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.4288254204660166</v>
       </c>
     </row>
@@ -1376,9 +1464,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.7</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.9604147122408058</v>
       </c>
     </row>
@@ -1440,9 +1534,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2133605501158805</v>
       </c>
     </row>
@@ -1504,9 +1604,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W17" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.02583299344620927</v>
       </c>
     </row>
@@ -1568,9 +1674,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W18" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.1606901132240531</v>
       </c>
     </row>
@@ -1632,9 +1744,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W19" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.2</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.7871523321403552</v>
       </c>
     </row>
@@ -1696,9 +1814,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W20" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.718270759276684</v>
       </c>
     </row>
@@ -1760,9 +1884,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W21" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.1213990856734398</v>
       </c>
     </row>
@@ -1824,9 +1954,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W22" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.7056477911718986</v>
       </c>
     </row>
@@ -1888,9 +2024,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W23" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.3</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.7077631708862511</v>
       </c>
     </row>
@@ -1952,9 +2094,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.9744668559119278</v>
       </c>
     </row>
@@ -2016,9 +2164,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.7</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6411849710942379</v>
       </c>
     </row>
@@ -2080,9 +2234,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W26" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y26" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.08500740390188948</v>
       </c>
     </row>
@@ -2144,9 +2304,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W27" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>-0.1980533355639446</v>
       </c>
     </row>
@@ -2208,9 +2374,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W28" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>1.206690169757592</v>
       </c>
     </row>
@@ -2272,9 +2444,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.3593813970288645</v>
       </c>
     </row>
@@ -2336,9 +2514,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y30" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.5398218591525976</v>
       </c>
     </row>
@@ -2400,9 +2584,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W31" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>1.345356232782868</v>
       </c>
     </row>
@@ -2464,9 +2654,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W32" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.2027438608412624</v>
       </c>
     </row>
@@ -2528,9 +2724,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W33" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.069567515261087</v>
       </c>
     </row>
@@ -2592,9 +2794,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W34" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>-0.2075065333136279</v>
       </c>
     </row>
@@ -2656,9 +2864,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W35" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.4447344041411498</v>
       </c>
     </row>
@@ -2720,9 +2934,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W36" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.1700881378508468</v>
       </c>
     </row>
@@ -2784,9 +3004,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W37" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y37" t="n">
         <v>6.8</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.02307160647698863</v>
       </c>
     </row>
@@ -2848,9 +3074,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.1135633490294474</v>
       </c>
     </row>
@@ -2914,9 +3146,15 @@
         <v>3.255135040800878</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>0.5997309935410871</v>
       </c>
     </row>
@@ -2980,9 +3218,15 @@
         <v>3.84341373392604</v>
       </c>
       <c r="W40" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.2</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.6334456811329374</v>
       </c>
     </row>
@@ -3046,9 +3290,15 @@
         <v>-0.03279226132025664</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.593522518775743</v>
       </c>
     </row>
@@ -3112,9 +3362,15 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.03990572122865862</v>
       </c>
     </row>
@@ -3178,9 +3434,15 @@
         <v>-1.021930766046043</v>
       </c>
       <c r="W43" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.1667516163775227</v>
       </c>
     </row>
@@ -3254,9 +3516,15 @@
         <v>-2.788690706559746</v>
       </c>
       <c r="W44" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.1078687456864371</v>
       </c>
     </row>
@@ -3330,9 +3598,15 @@
         <v>3.449195089352135</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.17628492154494</v>
       </c>
     </row>
@@ -3406,9 +3680,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.3721076015752325</v>
       </c>
     </row>
@@ -3482,9 +3762,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.4143405207332206</v>
       </c>
     </row>
@@ -3558,9 +3844,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.5</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.5776702521823834</v>
       </c>
     </row>
@@ -3634,9 +3926,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.2269927708221068</v>
       </c>
     </row>
@@ -3710,9 +4008,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>-0.05740889823699988</v>
       </c>
     </row>
@@ -3786,9 +4090,15 @@
         <v>0.825233094667669</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.117688842325689</v>
       </c>
     </row>
@@ -3862,9 +4172,15 @@
         <v>1.745752802405697</v>
       </c>
       <c r="W52" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.3426034466506157</v>
       </c>
     </row>
@@ -3938,9 +4254,15 @@
         <v>1.318070658080374</v>
       </c>
       <c r="W53" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y53" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.7315284458661117</v>
       </c>
     </row>
@@ -4014,9 +4336,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W54" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>1.385534799606143</v>
       </c>
     </row>
@@ -4090,9 +4418,15 @@
         <v>2.048798130833951</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.743426204920883</v>
       </c>
     </row>
@@ -4166,9 +4500,15 @@
         <v>3.632849373532128</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.109905120406505</v>
       </c>
     </row>
@@ -4242,9 +4582,15 @@
         <v>3.938332800037537</v>
       </c>
       <c r="W57" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.201081448069693</v>
       </c>
     </row>
@@ -4318,9 +4664,15 @@
         <v>3.298649899630645</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.1100809646699899</v>
       </c>
     </row>
@@ -4394,9 +4746,15 @@
         <v>1.585205734328175</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.3</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.272784676290975</v>
       </c>
     </row>
@@ -4470,9 +4828,15 @@
         <v>2.154224042221118</v>
       </c>
       <c r="W60" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>-0.2006224204571036</v>
       </c>
     </row>
@@ -4546,9 +4910,15 @@
         <v>1.667292350478271</v>
       </c>
       <c r="W61" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>0.4878018079382341</v>
       </c>
     </row>
@@ -4622,9 +4992,15 @@
         <v>2.005830937517215</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.685107691738291</v>
       </c>
     </row>
@@ -4698,9 +5074,15 @@
         <v>2.502102804443519</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>2.873502365231436</v>
       </c>
     </row>
@@ -4774,9 +5156,15 @@
         <v>0.2889854184104569</v>
       </c>
       <c r="W64" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y64" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.1849822526799591</v>
       </c>
     </row>
@@ -4850,9 +5238,15 @@
         <v>-1.003912502832854</v>
       </c>
       <c r="W65" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.482439099860601</v>
       </c>
     </row>
@@ -4926,9 +5320,15 @@
         <v>0.9372976452567761</v>
       </c>
       <c r="W66" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y66" t="n">
         <v>3.9</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.08442339646907653</v>
       </c>
     </row>
@@ -5002,9 +5402,15 @@
         <v>1.783206304244651</v>
       </c>
       <c r="W67" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.573522145657626</v>
       </c>
     </row>
@@ -5078,9 +5484,15 @@
         <v>2.605940506933865</v>
       </c>
       <c r="W68" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-0.3884383569649729</v>
       </c>
     </row>
@@ -5154,9 +5566,15 @@
         <v>2.207595169919983</v>
       </c>
       <c r="W69" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.02086459700051597</v>
       </c>
     </row>
@@ -5230,9 +5648,15 @@
         <v>-0.1664932746722196</v>
       </c>
       <c r="W70" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y70" t="n">
         <v>5.5</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.7072959362869223</v>
       </c>
     </row>
@@ -5306,9 +5730,15 @@
         <v>2.42810282643994</v>
       </c>
       <c r="W71" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.7</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.6798898102746526</v>
       </c>
     </row>
@@ -5382,9 +5812,15 @@
         <v>2.944629376628077</v>
       </c>
       <c r="W72" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.5096949546853069</v>
       </c>
     </row>
@@ -5458,9 +5894,15 @@
         <v>0.9625847824106198</v>
       </c>
       <c r="W73" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.09762394751077999</v>
       </c>
     </row>
@@ -5534,9 +5976,15 @@
         <v>3.193807432120631</v>
       </c>
       <c r="W74" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.1045100727625941</v>
       </c>
     </row>
@@ -5610,9 +6058,15 @@
         <v>3.186704010949004</v>
       </c>
       <c r="W75" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.8786217784293378</v>
       </c>
     </row>
@@ -5686,9 +6140,15 @@
         <v>2.302703502910492</v>
       </c>
       <c r="W76" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X76" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>1.407307788785062</v>
       </c>
     </row>
@@ -5762,9 +6222,15 @@
         <v>5.611227921164054</v>
       </c>
       <c r="W77" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.835858064210331</v>
       </c>
     </row>
@@ -5838,9 +6304,15 @@
         <v>4.522509800493581</v>
       </c>
       <c r="W78" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.2926046176816195</v>
       </c>
     </row>
@@ -5914,9 +6386,15 @@
         <v>3.219401540794649</v>
       </c>
       <c r="W79" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.7</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>-1.324006255616792</v>
       </c>
     </row>
@@ -5990,9 +6468,15 @@
         <v>5.789005745763967</v>
       </c>
       <c r="W80" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.5542861517314714</v>
       </c>
     </row>
@@ -6066,9 +6550,15 @@
         <v>3.061017299825585</v>
       </c>
       <c r="W81" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.870053503140498</v>
       </c>
     </row>
@@ -6142,9 +6632,15 @@
         <v>2.270889523983484</v>
       </c>
       <c r="W82" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.06841565101537322</v>
       </c>
     </row>
@@ -6218,9 +6714,15 @@
         <v>3.067810016923482</v>
       </c>
       <c r="W83" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>-0.1570930570968357</v>
       </c>
     </row>
@@ -6294,9 +6796,15 @@
         <v>3.962367202814642</v>
       </c>
       <c r="W84" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.05899602191465735</v>
       </c>
     </row>
@@ -6370,9 +6878,15 @@
         <v>3.609665538721766</v>
       </c>
       <c r="W85" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.3537434252962114</v>
       </c>
     </row>
@@ -6446,9 +6960,15 @@
         <v>1.911960772932828</v>
       </c>
       <c r="W86" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.2841729381919869</v>
       </c>
     </row>
@@ -6522,9 +7042,15 @@
         <v>0.6661756687066653</v>
       </c>
       <c r="W87" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.5922682521558574</v>
       </c>
     </row>
@@ -6598,9 +7124,15 @@
         <v>-3.618095085053826</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.3625624765729431</v>
       </c>
     </row>
@@ -6674,9 +7206,15 @@
         <v>-5.597424557967874</v>
       </c>
       <c r="W89" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.4086285672709357</v>
       </c>
     </row>
@@ -6750,9 +7288,15 @@
         <v>-4.63595220847842</v>
       </c>
       <c r="W90" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>1.714879675359611</v>
       </c>
     </row>
@@ -6826,9 +7370,15 @@
         <v>-4.049252848757594</v>
       </c>
       <c r="W91" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.1031395160449592</v>
       </c>
     </row>
@@ -6902,9 +7452,15 @@
         <v>-3.730490243232172</v>
       </c>
       <c r="W92" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.1542698105039519</v>
       </c>
     </row>
@@ -6978,9 +7534,15 @@
         <v>-6.219049377310645</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.7</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.2567767678574419</v>
       </c>
     </row>
@@ -7054,9 +7616,15 @@
         <v>-8.541775115435177</v>
       </c>
       <c r="W94" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.8</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6534733065439211</v>
       </c>
     </row>
@@ -7130,9 +7698,15 @@
         <v>-8.701137698962981</v>
       </c>
       <c r="W95" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.05454483292428998</v>
       </c>
     </row>
@@ -7206,9 +7780,15 @@
         <v>-4.722798026623292</v>
       </c>
       <c r="W96" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y96" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.1196851139522223</v>
       </c>
     </row>
@@ -7282,9 +7862,15 @@
         <v>-5.319076748081435</v>
       </c>
       <c r="W97" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y97" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.1195313852514801</v>
       </c>
     </row>
@@ -7358,9 +7944,15 @@
         <v>-9.109372942539009</v>
       </c>
       <c r="W98" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y98" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.6884937614143962</v>
       </c>
     </row>
@@ -7434,9 +8026,15 @@
         <v>-13.27970066383171</v>
       </c>
       <c r="W99" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.003524898885789755</v>
+      </c>
+      <c r="Y99" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>-1.077680886300993</v>
       </c>
     </row>
@@ -7508,9 +8106,13 @@
         <v>-8.057675308008756</v>
       </c>
       <c r="W100" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>9.266666666666667</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>-0.008165679270671253</v>
       </c>
     </row>
@@ -7525,7 +8127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7641,10 +8243,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -7708,9 +8320,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.1372953558228524</v>
       </c>
     </row>
@@ -7772,9 +8390,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W3" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0585619023566217</v>
       </c>
     </row>
@@ -7836,9 +8460,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W4" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.3</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.2561233676117278</v>
       </c>
     </row>
@@ -7900,9 +8530,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W5" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.2</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.9294994864702675</v>
       </c>
     </row>
@@ -7964,9 +8600,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W6" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>1.136886190987389</v>
       </c>
     </row>
@@ -8028,9 +8670,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W7" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.8024461665134646</v>
       </c>
     </row>
@@ -8092,9 +8740,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W8" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.4574238561276663</v>
       </c>
     </row>
@@ -8156,9 +8810,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W9" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.5089154227391779</v>
       </c>
     </row>
@@ -8220,9 +8880,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.535950991194442</v>
       </c>
     </row>
@@ -8284,9 +8950,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>-0.2790726782977443</v>
       </c>
     </row>
@@ -8348,9 +9020,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W12" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.1112838271730546</v>
       </c>
     </row>
@@ -8412,9 +9090,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W13" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.2338340968445509</v>
       </c>
     </row>
@@ -8476,9 +9160,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W14" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.4288254204660166</v>
       </c>
     </row>
@@ -8540,9 +9230,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.7</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.9604147122408058</v>
       </c>
     </row>
@@ -8604,9 +9300,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2133605501158805</v>
       </c>
     </row>
@@ -8668,9 +9370,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W17" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.02583299344620927</v>
       </c>
     </row>
@@ -8732,9 +9440,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W18" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.1606901132240531</v>
       </c>
     </row>
@@ -8796,9 +9510,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W19" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.2</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.7871523321403552</v>
       </c>
     </row>
@@ -8860,9 +9580,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W20" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.718270759276684</v>
       </c>
     </row>
@@ -8924,9 +9650,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W21" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.1213990856734398</v>
       </c>
     </row>
@@ -8988,9 +9720,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W22" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.7056477911718986</v>
       </c>
     </row>
@@ -9052,9 +9790,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W23" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.3</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.7077631708862511</v>
       </c>
     </row>
@@ -9116,9 +9860,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.9744668559119278</v>
       </c>
     </row>
@@ -9180,9 +9930,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.7</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6411849710942379</v>
       </c>
     </row>
@@ -9244,9 +10000,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W26" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y26" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.08500740390188948</v>
       </c>
     </row>
@@ -9308,9 +10070,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W27" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>-0.1980533355639446</v>
       </c>
     </row>
@@ -9372,9 +10140,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W28" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>1.206690169757592</v>
       </c>
     </row>
@@ -9436,9 +10210,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.3593813970288645</v>
       </c>
     </row>
@@ -9500,9 +10280,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y30" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.5398218591525976</v>
       </c>
     </row>
@@ -9564,9 +10350,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W31" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>1.345356232782868</v>
       </c>
     </row>
@@ -9628,9 +10420,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W32" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.2027438608412624</v>
       </c>
     </row>
@@ -9692,9 +10490,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W33" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.069567515261087</v>
       </c>
     </row>
@@ -9756,9 +10560,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W34" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>-0.2075065333136279</v>
       </c>
     </row>
@@ -9820,9 +10630,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W35" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.4447344041411498</v>
       </c>
     </row>
@@ -9884,9 +10700,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W36" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.1700881378508468</v>
       </c>
     </row>
@@ -9948,9 +10770,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W37" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y37" t="n">
         <v>6.8</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.02307160647698863</v>
       </c>
     </row>
@@ -10012,9 +10840,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.1135633490294474</v>
       </c>
     </row>
@@ -10078,9 +10912,15 @@
         <v>3.255135040800878</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>0.5997309935410871</v>
       </c>
     </row>
@@ -10144,9 +10984,15 @@
         <v>3.84341373392604</v>
       </c>
       <c r="W40" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.2</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.6334456811329374</v>
       </c>
     </row>
@@ -10210,9 +11056,15 @@
         <v>-0.03279226132025664</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.593522518775743</v>
       </c>
     </row>
@@ -10276,9 +11128,15 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.03990572122865862</v>
       </c>
     </row>
@@ -10342,9 +11200,15 @@
         <v>-1.021930766046043</v>
       </c>
       <c r="W43" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.1667516163775227</v>
       </c>
     </row>
@@ -10418,9 +11282,15 @@
         <v>-2.788690706559746</v>
       </c>
       <c r="W44" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.1078687456864371</v>
       </c>
     </row>
@@ -10494,9 +11364,15 @@
         <v>3.449195089352135</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.17628492154494</v>
       </c>
     </row>
@@ -10570,9 +11446,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.3721076015752325</v>
       </c>
     </row>
@@ -10646,9 +11528,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.4143405207332206</v>
       </c>
     </row>
@@ -10722,9 +11610,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.5</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.5776702521823834</v>
       </c>
     </row>
@@ -10798,9 +11692,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.2269927708221068</v>
       </c>
     </row>
@@ -10874,9 +11774,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>-0.05740889823699988</v>
       </c>
     </row>
@@ -10950,9 +11856,15 @@
         <v>0.825233094667669</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.117688842325689</v>
       </c>
     </row>
@@ -11026,9 +11938,15 @@
         <v>1.745752802405697</v>
       </c>
       <c r="W52" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.3426034466506157</v>
       </c>
     </row>
@@ -11102,9 +12020,15 @@
         <v>1.318070658080374</v>
       </c>
       <c r="W53" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y53" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.7315284458661117</v>
       </c>
     </row>
@@ -11178,9 +12102,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W54" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>1.385534799606143</v>
       </c>
     </row>
@@ -11254,9 +12184,15 @@
         <v>2.048798130833951</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.743426204920883</v>
       </c>
     </row>
@@ -11330,9 +12266,15 @@
         <v>3.632849373532128</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.109905120406505</v>
       </c>
     </row>
@@ -11406,9 +12348,15 @@
         <v>3.938332800037537</v>
       </c>
       <c r="W57" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.201081448069693</v>
       </c>
     </row>
@@ -11482,9 +12430,15 @@
         <v>3.298649899630645</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.1100809646699899</v>
       </c>
     </row>
@@ -11558,9 +12512,15 @@
         <v>1.585205734328175</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.3</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.272784676290975</v>
       </c>
     </row>
@@ -11634,9 +12594,15 @@
         <v>2.154224042221118</v>
       </c>
       <c r="W60" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>-0.2006224204571036</v>
       </c>
     </row>
@@ -11710,9 +12676,15 @@
         <v>1.667292350478271</v>
       </c>
       <c r="W61" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>0.4878018079382341</v>
       </c>
     </row>
@@ -11786,9 +12758,15 @@
         <v>2.005830937517215</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.685107691738291</v>
       </c>
     </row>
@@ -11862,9 +12840,15 @@
         <v>2.502102804443519</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>2.873502365231436</v>
       </c>
     </row>
@@ -11938,9 +12922,15 @@
         <v>0.2889854184104569</v>
       </c>
       <c r="W64" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y64" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.1849822526799591</v>
       </c>
     </row>
@@ -12014,9 +13004,15 @@
         <v>-1.003912502832854</v>
       </c>
       <c r="W65" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.482439099860601</v>
       </c>
     </row>
@@ -12090,9 +13086,15 @@
         <v>0.9372976452567761</v>
       </c>
       <c r="W66" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y66" t="n">
         <v>3.9</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.08442339646907653</v>
       </c>
     </row>
@@ -12166,9 +13168,15 @@
         <v>1.783206304244651</v>
       </c>
       <c r="W67" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.573522145657626</v>
       </c>
     </row>
@@ -12242,9 +13250,15 @@
         <v>2.605940506933865</v>
       </c>
       <c r="W68" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-0.3884383569649729</v>
       </c>
     </row>
@@ -12318,9 +13332,15 @@
         <v>2.207595169919983</v>
       </c>
       <c r="W69" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.02086459700051597</v>
       </c>
     </row>
@@ -12394,9 +13414,15 @@
         <v>-0.1664932746722196</v>
       </c>
       <c r="W70" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y70" t="n">
         <v>5.5</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.7072959362869223</v>
       </c>
     </row>
@@ -12470,9 +13496,15 @@
         <v>2.42810282643994</v>
       </c>
       <c r="W71" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.7</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.6798898102746526</v>
       </c>
     </row>
@@ -12546,9 +13578,15 @@
         <v>2.944629376628077</v>
       </c>
       <c r="W72" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.5096949546853069</v>
       </c>
     </row>
@@ -12622,9 +13660,15 @@
         <v>0.9625847824106198</v>
       </c>
       <c r="W73" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.09762394751077999</v>
       </c>
     </row>
@@ -12698,9 +13742,15 @@
         <v>3.193807432120631</v>
       </c>
       <c r="W74" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.1045100727625941</v>
       </c>
     </row>
@@ -12774,9 +13824,15 @@
         <v>3.186704010949004</v>
       </c>
       <c r="W75" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.8786217784293378</v>
       </c>
     </row>
@@ -12850,9 +13906,15 @@
         <v>2.302703502910492</v>
       </c>
       <c r="W76" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X76" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>1.407307788785062</v>
       </c>
     </row>
@@ -12926,9 +13988,15 @@
         <v>5.611227921164054</v>
       </c>
       <c r="W77" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.835858064210331</v>
       </c>
     </row>
@@ -13002,9 +14070,15 @@
         <v>4.522509800493581</v>
       </c>
       <c r="W78" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.2926046176816195</v>
       </c>
     </row>
@@ -13078,9 +14152,15 @@
         <v>3.219401540794649</v>
       </c>
       <c r="W79" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.7</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>-1.324006255616792</v>
       </c>
     </row>
@@ -13154,9 +14234,15 @@
         <v>5.789005745763967</v>
       </c>
       <c r="W80" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.5542861517314714</v>
       </c>
     </row>
@@ -13230,9 +14316,15 @@
         <v>3.061017299825585</v>
       </c>
       <c r="W81" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.870053503140498</v>
       </c>
     </row>
@@ -13306,9 +14398,15 @@
         <v>2.270889523983484</v>
       </c>
       <c r="W82" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.06841565101537322</v>
       </c>
     </row>
@@ -13382,9 +14480,15 @@
         <v>3.067810016923482</v>
       </c>
       <c r="W83" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>-0.1570930570968357</v>
       </c>
     </row>
@@ -13458,9 +14562,15 @@
         <v>3.962367202814642</v>
       </c>
       <c r="W84" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.05899602191465735</v>
       </c>
     </row>
@@ -13534,9 +14644,15 @@
         <v>3.609665538721766</v>
       </c>
       <c r="W85" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.3537434252962114</v>
       </c>
     </row>
@@ -13610,9 +14726,15 @@
         <v>1.911960772932828</v>
       </c>
       <c r="W86" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.2841729381919869</v>
       </c>
     </row>
@@ -13686,9 +14808,15 @@
         <v>0.6661756687066653</v>
       </c>
       <c r="W87" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.5922682521558574</v>
       </c>
     </row>
@@ -13762,9 +14890,15 @@
         <v>-3.618095085053826</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.3625624765729431</v>
       </c>
     </row>
@@ -13838,9 +14972,15 @@
         <v>-5.597424557967874</v>
       </c>
       <c r="W89" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.4086285672709357</v>
       </c>
     </row>
@@ -13914,9 +15054,15 @@
         <v>-4.63595220847842</v>
       </c>
       <c r="W90" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>1.714879675359611</v>
       </c>
     </row>
@@ -13990,9 +15136,15 @@
         <v>-4.049252848757594</v>
       </c>
       <c r="W91" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.1031395160449592</v>
       </c>
     </row>
@@ -14066,9 +15218,15 @@
         <v>-3.730490243232172</v>
       </c>
       <c r="W92" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.1542698105039519</v>
       </c>
     </row>
@@ -14142,9 +15300,15 @@
         <v>-6.219049377310645</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.7</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.2567767678574419</v>
       </c>
     </row>
@@ -14218,9 +15382,15 @@
         <v>-8.541775115435177</v>
       </c>
       <c r="W94" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.8</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6534733065439211</v>
       </c>
     </row>
@@ -14294,9 +15464,15 @@
         <v>-8.701137698962981</v>
       </c>
       <c r="W95" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.05454483292428998</v>
       </c>
     </row>
@@ -14370,9 +15546,15 @@
         <v>-4.722798026623292</v>
       </c>
       <c r="W96" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y96" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.1196851139522223</v>
       </c>
     </row>
@@ -14446,9 +15628,15 @@
         <v>-5.319076748081435</v>
       </c>
       <c r="W97" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y97" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.1195313852514801</v>
       </c>
     </row>
@@ -14522,9 +15710,15 @@
         <v>-9.109372942539009</v>
       </c>
       <c r="W98" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y98" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.6884937614143962</v>
       </c>
     </row>
@@ -14598,9 +15792,15 @@
         <v>-13.27970066383171</v>
       </c>
       <c r="W99" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.003524898885789755</v>
+      </c>
+      <c r="Y99" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>-1.077680886300993</v>
       </c>
     </row>
@@ -14672,9 +15872,13 @@
         <v>-8.057675308008756</v>
       </c>
       <c r="W100" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>9.266666666666667</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>-0.008165679270671253</v>
       </c>
     </row>
@@ -14719,6 +15923,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -14731,7 +15937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14847,10 +16053,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -14914,9 +16130,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.1372953558228524</v>
       </c>
     </row>
@@ -14978,9 +16200,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W3" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0585619023566217</v>
       </c>
     </row>
@@ -15042,9 +16270,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W4" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.3</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.2561233676117278</v>
       </c>
     </row>
@@ -15106,9 +16340,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W5" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.2</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.9294994864702675</v>
       </c>
     </row>
@@ -15170,9 +16410,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W6" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>1.136886190987389</v>
       </c>
     </row>
@@ -15234,9 +16480,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W7" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.8024461665134646</v>
       </c>
     </row>
@@ -15298,9 +16550,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W8" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.4574238561276663</v>
       </c>
     </row>
@@ -15362,9 +16620,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W9" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.5089154227391779</v>
       </c>
     </row>
@@ -15426,9 +16690,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.535950991194442</v>
       </c>
     </row>
@@ -15490,9 +16760,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>-0.2790726782977443</v>
       </c>
     </row>
@@ -15554,9 +16830,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W12" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.1112838271730546</v>
       </c>
     </row>
@@ -15618,9 +16900,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W13" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.2338340968445509</v>
       </c>
     </row>
@@ -15682,9 +16970,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W14" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.4288254204660166</v>
       </c>
     </row>
@@ -15746,9 +17040,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.7</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.9604147122408058</v>
       </c>
     </row>
@@ -15810,9 +17110,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2133605501158805</v>
       </c>
     </row>
@@ -15874,9 +17180,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W17" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.02583299344620927</v>
       </c>
     </row>
@@ -15938,9 +17250,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W18" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.1606901132240531</v>
       </c>
     </row>
@@ -16002,9 +17320,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W19" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.2</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.7871523321403552</v>
       </c>
     </row>
@@ -16066,9 +17390,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W20" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.718270759276684</v>
       </c>
     </row>
@@ -16130,9 +17460,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W21" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.1213990856734398</v>
       </c>
     </row>
@@ -16194,9 +17530,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W22" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.7056477911718986</v>
       </c>
     </row>
@@ -16258,9 +17600,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W23" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.3</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.7077631708862511</v>
       </c>
     </row>
@@ -16322,9 +17670,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.9744668559119278</v>
       </c>
     </row>
@@ -16386,9 +17740,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.7</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6411849710942379</v>
       </c>
     </row>
@@ -16450,9 +17810,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W26" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y26" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.08500740390188948</v>
       </c>
     </row>
@@ -16514,9 +17880,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W27" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>-0.1980533355639446</v>
       </c>
     </row>
@@ -16578,9 +17950,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W28" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>1.206690169757592</v>
       </c>
     </row>
@@ -16642,9 +18020,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.3593813970288645</v>
       </c>
     </row>
@@ -16706,9 +18090,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y30" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.5398218591525976</v>
       </c>
     </row>
@@ -16770,9 +18160,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W31" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>1.345356232782868</v>
       </c>
     </row>
@@ -16834,9 +18230,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W32" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.2027438608412624</v>
       </c>
     </row>
@@ -16898,9 +18300,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W33" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.069567515261087</v>
       </c>
     </row>
@@ -16962,9 +18370,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W34" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>-0.2075065333136279</v>
       </c>
     </row>
@@ -17026,9 +18440,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W35" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.4447344041411498</v>
       </c>
     </row>
@@ -17090,9 +18510,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W36" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.1700881378508468</v>
       </c>
     </row>
@@ -17154,9 +18580,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W37" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y37" t="n">
         <v>6.8</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.02307160647698863</v>
       </c>
     </row>
@@ -17218,9 +18650,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.1135633490294474</v>
       </c>
     </row>
@@ -17284,9 +18722,15 @@
         <v>3.255135040800878</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>0.5997309935410871</v>
       </c>
     </row>
@@ -17350,9 +18794,15 @@
         <v>3.84341373392604</v>
       </c>
       <c r="W40" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.2</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.6334456811329374</v>
       </c>
     </row>
@@ -17416,9 +18866,15 @@
         <v>-0.03279226132025664</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.593522518775743</v>
       </c>
     </row>
@@ -17482,9 +18938,15 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.03990572122865862</v>
       </c>
     </row>
@@ -17548,9 +19010,15 @@
         <v>-1.021930766046043</v>
       </c>
       <c r="W43" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.1667516163775227</v>
       </c>
     </row>
@@ -17624,9 +19092,15 @@
         <v>-2.788690706559746</v>
       </c>
       <c r="W44" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.1078687456864371</v>
       </c>
     </row>
@@ -17700,9 +19174,15 @@
         <v>3.449195089352135</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.17628492154494</v>
       </c>
     </row>
@@ -17776,9 +19256,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.3721076015752325</v>
       </c>
     </row>
@@ -17852,9 +19338,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.4143405207332206</v>
       </c>
     </row>
@@ -17928,9 +19420,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.5</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.5776702521823834</v>
       </c>
     </row>
@@ -18004,9 +19502,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.2269927708221068</v>
       </c>
     </row>
@@ -18080,9 +19584,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>-0.05740889823699988</v>
       </c>
     </row>
@@ -18156,9 +19666,15 @@
         <v>0.825233094667669</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.117688842325689</v>
       </c>
     </row>
@@ -18232,9 +19748,15 @@
         <v>1.745752802405697</v>
       </c>
       <c r="W52" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.3426034466506157</v>
       </c>
     </row>
@@ -18308,9 +19830,15 @@
         <v>1.318070658080374</v>
       </c>
       <c r="W53" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y53" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.7315284458661117</v>
       </c>
     </row>
@@ -18384,9 +19912,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W54" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>1.385534799606143</v>
       </c>
     </row>
@@ -18460,9 +19994,15 @@
         <v>2.048798130833951</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.743426204920883</v>
       </c>
     </row>
@@ -18536,9 +20076,15 @@
         <v>3.632849373532128</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.109905120406505</v>
       </c>
     </row>
@@ -18612,9 +20158,15 @@
         <v>3.938332800037537</v>
       </c>
       <c r="W57" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.201081448069693</v>
       </c>
     </row>
@@ -18688,9 +20240,15 @@
         <v>3.298649899630645</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.1100809646699899</v>
       </c>
     </row>
@@ -18764,9 +20322,15 @@
         <v>1.585205734328175</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.3</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.272784676290975</v>
       </c>
     </row>
@@ -18840,9 +20404,15 @@
         <v>2.154224042221118</v>
       </c>
       <c r="W60" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>-0.2006224204571036</v>
       </c>
     </row>
@@ -18916,9 +20486,15 @@
         <v>1.667292350478271</v>
       </c>
       <c r="W61" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>0.4878018079382341</v>
       </c>
     </row>
@@ -18992,9 +20568,15 @@
         <v>2.005830937517215</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.685107691738291</v>
       </c>
     </row>
@@ -19068,9 +20650,15 @@
         <v>2.502102804443519</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>2.873502365231436</v>
       </c>
     </row>
@@ -19144,9 +20732,15 @@
         <v>0.2889854184104569</v>
       </c>
       <c r="W64" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y64" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.1849822526799591</v>
       </c>
     </row>
@@ -19220,9 +20814,15 @@
         <v>-1.003912502832854</v>
       </c>
       <c r="W65" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.482439099860601</v>
       </c>
     </row>
@@ -19296,9 +20896,15 @@
         <v>0.9372976452567761</v>
       </c>
       <c r="W66" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y66" t="n">
         <v>3.9</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.08442339646907653</v>
       </c>
     </row>
@@ -19372,9 +20978,15 @@
         <v>1.783206304244651</v>
       </c>
       <c r="W67" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.573522145657626</v>
       </c>
     </row>
@@ -19448,9 +21060,15 @@
         <v>2.605940506933865</v>
       </c>
       <c r="W68" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-0.3884383569649729</v>
       </c>
     </row>
@@ -19524,9 +21142,15 @@
         <v>2.207595169919983</v>
       </c>
       <c r="W69" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.02086459700051597</v>
       </c>
     </row>
@@ -19600,9 +21224,15 @@
         <v>-0.1664932746722196</v>
       </c>
       <c r="W70" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y70" t="n">
         <v>5.5</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.7072959362869223</v>
       </c>
     </row>
@@ -19676,9 +21306,15 @@
         <v>2.42810282643994</v>
       </c>
       <c r="W71" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.7</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.6798898102746526</v>
       </c>
     </row>
@@ -19752,9 +21388,15 @@
         <v>2.944629376628077</v>
       </c>
       <c r="W72" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.5096949546853069</v>
       </c>
     </row>
@@ -19828,9 +21470,15 @@
         <v>0.9625847824106198</v>
       </c>
       <c r="W73" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.09762394751077999</v>
       </c>
     </row>
@@ -19904,9 +21552,15 @@
         <v>3.193807432120631</v>
       </c>
       <c r="W74" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.1045100727625941</v>
       </c>
     </row>
@@ -19980,9 +21634,15 @@
         <v>3.186704010949004</v>
       </c>
       <c r="W75" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.8786217784293378</v>
       </c>
     </row>
@@ -20056,9 +21716,15 @@
         <v>2.302703502910492</v>
       </c>
       <c r="W76" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X76" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>1.407307788785062</v>
       </c>
     </row>
@@ -20132,9 +21798,15 @@
         <v>5.611227921164054</v>
       </c>
       <c r="W77" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.835858064210331</v>
       </c>
     </row>
@@ -20208,9 +21880,15 @@
         <v>4.522509800493581</v>
       </c>
       <c r="W78" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.2926046176816195</v>
       </c>
     </row>
@@ -20284,9 +21962,15 @@
         <v>3.219401540794649</v>
       </c>
       <c r="W79" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.7</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>-1.324006255616792</v>
       </c>
     </row>
@@ -20360,9 +22044,15 @@
         <v>5.789005745763967</v>
       </c>
       <c r="W80" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.5542861517314714</v>
       </c>
     </row>
@@ -20436,9 +22126,15 @@
         <v>3.061017299825585</v>
       </c>
       <c r="W81" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.870053503140498</v>
       </c>
     </row>
@@ -20512,9 +22208,15 @@
         <v>2.270889523983484</v>
       </c>
       <c r="W82" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.06841565101537322</v>
       </c>
     </row>
@@ -20588,9 +22290,15 @@
         <v>3.067810016923482</v>
       </c>
       <c r="W83" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>-0.1570930570968357</v>
       </c>
     </row>
@@ -20664,9 +22372,15 @@
         <v>3.962367202814642</v>
       </c>
       <c r="W84" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.05899602191465735</v>
       </c>
     </row>
@@ -20740,9 +22454,15 @@
         <v>3.609665538721766</v>
       </c>
       <c r="W85" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.3537434252962114</v>
       </c>
     </row>
@@ -20816,9 +22536,15 @@
         <v>1.911960772932828</v>
       </c>
       <c r="W86" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.2841729381919869</v>
       </c>
     </row>
@@ -20892,9 +22618,15 @@
         <v>0.6661756687066653</v>
       </c>
       <c r="W87" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.5922682521558574</v>
       </c>
     </row>
@@ -20968,9 +22700,15 @@
         <v>-3.618095085053826</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.3625624765729431</v>
       </c>
     </row>
@@ -21044,9 +22782,15 @@
         <v>-5.597424557967874</v>
       </c>
       <c r="W89" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.4086285672709357</v>
       </c>
     </row>
@@ -21120,9 +22864,15 @@
         <v>-4.63595220847842</v>
       </c>
       <c r="W90" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>1.714879675359611</v>
       </c>
     </row>
@@ -21196,9 +22946,15 @@
         <v>-4.049252848757594</v>
       </c>
       <c r="W91" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.1031395160449592</v>
       </c>
     </row>
@@ -21272,9 +23028,15 @@
         <v>-3.730490243232172</v>
       </c>
       <c r="W92" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.1542698105039519</v>
       </c>
     </row>
@@ -21348,9 +23110,15 @@
         <v>-6.219049377310645</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.7</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.2567767678574419</v>
       </c>
     </row>
@@ -21424,9 +23192,15 @@
         <v>-8.541775115435177</v>
       </c>
       <c r="W94" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.8</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6534733065439211</v>
       </c>
     </row>
@@ -21500,9 +23274,15 @@
         <v>-8.701137698962981</v>
       </c>
       <c r="W95" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.05454483292428998</v>
       </c>
     </row>
@@ -21576,9 +23356,15 @@
         <v>-4.722798026623292</v>
       </c>
       <c r="W96" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y96" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.1196851139522223</v>
       </c>
     </row>
@@ -21652,9 +23438,15 @@
         <v>-5.319076748081435</v>
       </c>
       <c r="W97" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y97" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.1195313852514801</v>
       </c>
     </row>
@@ -21728,9 +23520,15 @@
         <v>-9.109372942539009</v>
       </c>
       <c r="W98" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y98" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.6884937614143962</v>
       </c>
     </row>
@@ -21804,9 +23602,15 @@
         <v>-13.27970066383171</v>
       </c>
       <c r="W99" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.003524898885789755</v>
+      </c>
+      <c r="Y99" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>-1.077680886300993</v>
       </c>
     </row>
@@ -21878,9 +23682,13 @@
         <v>-8.057675308008756</v>
       </c>
       <c r="W100" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>9.266666666666667</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>-0.008165679270671253</v>
       </c>
     </row>
@@ -21910,9 +23718,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="n">
-        <v>-52.83701838548696</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -21921,6 +23727,8 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -21933,7 +23741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22049,10 +23857,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -22116,9 +23934,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W2" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.1372953558228524</v>
       </c>
     </row>
@@ -22180,9 +24004,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W3" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.0585619023566217</v>
       </c>
     </row>
@@ -22244,9 +24074,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W4" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.3</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.2561233676117278</v>
       </c>
     </row>
@@ -22308,9 +24144,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W5" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.2</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.9294994864702675</v>
       </c>
     </row>
@@ -22372,9 +24214,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W6" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>1.136886190987389</v>
       </c>
     </row>
@@ -22436,9 +24284,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W7" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.8024461665134646</v>
       </c>
     </row>
@@ -22500,9 +24354,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W8" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.4574238561276663</v>
       </c>
     </row>
@@ -22564,9 +24424,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W9" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.5089154227391779</v>
       </c>
     </row>
@@ -22628,9 +24494,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.535950991194442</v>
       </c>
     </row>
@@ -22692,9 +24564,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>-0.2790726782977443</v>
       </c>
     </row>
@@ -22756,9 +24634,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W12" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.1112838271730546</v>
       </c>
     </row>
@@ -22820,9 +24704,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W13" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.2338340968445509</v>
       </c>
     </row>
@@ -22884,9 +24774,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W14" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.4288254204660166</v>
       </c>
     </row>
@@ -22948,9 +24844,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W15" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.7</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.9604147122408058</v>
       </c>
     </row>
@@ -23012,9 +24914,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W16" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.2133605501158805</v>
       </c>
     </row>
@@ -23076,9 +24984,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W17" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.02583299344620927</v>
       </c>
     </row>
@@ -23140,9 +25054,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W18" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.1606901132240531</v>
       </c>
     </row>
@@ -23204,9 +25124,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W19" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.2</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.7871523321403552</v>
       </c>
     </row>
@@ -23268,9 +25194,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W20" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.718270759276684</v>
       </c>
     </row>
@@ -23332,9 +25264,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W21" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.1213990856734398</v>
       </c>
     </row>
@@ -23396,9 +25334,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W22" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.7056477911718986</v>
       </c>
     </row>
@@ -23460,9 +25404,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W23" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.3</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.7077631708862511</v>
       </c>
     </row>
@@ -23524,9 +25474,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.9744668559119278</v>
       </c>
     </row>
@@ -23588,9 +25544,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.7</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.6411849710942379</v>
       </c>
     </row>
@@ -23652,9 +25614,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W26" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y26" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.08500740390188948</v>
       </c>
     </row>
@@ -23716,9 +25684,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W27" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>-0.1980533355639446</v>
       </c>
     </row>
@@ -23780,9 +25754,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W28" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>1.206690169757592</v>
       </c>
     </row>
@@ -23844,9 +25824,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.3593813970288645</v>
       </c>
     </row>
@@ -23908,9 +25894,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y30" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.5398218591525976</v>
       </c>
     </row>
@@ -23972,9 +25964,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W31" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>1.345356232782868</v>
       </c>
     </row>
@@ -24036,9 +26034,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W32" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.2027438608412624</v>
       </c>
     </row>
@@ -24100,9 +26104,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W33" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.069567515261087</v>
       </c>
     </row>
@@ -24164,9 +26174,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W34" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>-0.2075065333136279</v>
       </c>
     </row>
@@ -24228,9 +26244,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W35" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.4447344041411498</v>
       </c>
     </row>
@@ -24292,9 +26314,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W36" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.1700881378508468</v>
       </c>
     </row>
@@ -24356,9 +26384,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W37" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y37" t="n">
         <v>6.8</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.02307160647698863</v>
       </c>
     </row>
@@ -24420,9 +26454,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.1135633490294474</v>
       </c>
     </row>
@@ -24486,9 +26526,15 @@
         <v>3.255135040800878</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>0.5997309935410871</v>
       </c>
     </row>
@@ -24552,9 +26598,15 @@
         <v>3.84341373392604</v>
       </c>
       <c r="W40" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.2</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.6334456811329374</v>
       </c>
     </row>
@@ -24618,9 +26670,15 @@
         <v>-0.03279226132025664</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.593522518775743</v>
       </c>
     </row>
@@ -24684,9 +26742,15 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.03990572122865862</v>
       </c>
     </row>
@@ -24750,9 +26814,15 @@
         <v>-1.021930766046043</v>
       </c>
       <c r="W43" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.1667516163775227</v>
       </c>
     </row>
@@ -24826,9 +26896,15 @@
         <v>-2.788690706559746</v>
       </c>
       <c r="W44" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.1078687456864371</v>
       </c>
     </row>
@@ -24902,9 +26978,15 @@
         <v>3.449195089352135</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.17628492154494</v>
       </c>
     </row>
@@ -24978,9 +27060,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.3721076015752325</v>
       </c>
     </row>
@@ -25054,9 +27142,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.4143405207332206</v>
       </c>
     </row>
@@ -25130,9 +27224,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.5</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.5776702521823834</v>
       </c>
     </row>
@@ -25206,9 +27306,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.2269927708221068</v>
       </c>
     </row>
@@ -25282,9 +27388,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>-0.05740889823699988</v>
       </c>
     </row>
@@ -25358,9 +27470,15 @@
         <v>0.825233094667669</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.117688842325689</v>
       </c>
     </row>
@@ -25434,9 +27552,15 @@
         <v>1.745752802405697</v>
       </c>
       <c r="W52" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.3426034466506157</v>
       </c>
     </row>
@@ -25510,9 +27634,15 @@
         <v>1.318070658080374</v>
       </c>
       <c r="W53" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y53" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.7315284458661117</v>
       </c>
     </row>
@@ -25586,9 +27716,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W54" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>1.385534799606143</v>
       </c>
     </row>
@@ -25662,9 +27798,15 @@
         <v>2.048798130833951</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.743426204920883</v>
       </c>
     </row>
@@ -25738,9 +27880,15 @@
         <v>3.632849373532128</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.109905120406505</v>
       </c>
     </row>
@@ -25814,9 +27962,15 @@
         <v>3.938332800037537</v>
       </c>
       <c r="W57" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.201081448069693</v>
       </c>
     </row>
@@ -25890,9 +28044,15 @@
         <v>3.298649899630645</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.1100809646699899</v>
       </c>
     </row>
@@ -25966,9 +28126,15 @@
         <v>1.585205734328175</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.3</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.272784676290975</v>
       </c>
     </row>
@@ -26042,9 +28208,15 @@
         <v>2.154224042221118</v>
       </c>
       <c r="W60" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>-0.2006224204571036</v>
       </c>
     </row>
@@ -26118,9 +28290,15 @@
         <v>1.667292350478271</v>
       </c>
       <c r="W61" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>0.4878018079382341</v>
       </c>
     </row>
@@ -26194,9 +28372,15 @@
         <v>2.005830937517215</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.685107691738291</v>
       </c>
     </row>
@@ -26270,9 +28454,15 @@
         <v>2.502102804443519</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>2.873502365231436</v>
       </c>
     </row>
@@ -26346,9 +28536,15 @@
         <v>0.2889854184104569</v>
       </c>
       <c r="W64" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y64" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>-0.1849822526799591</v>
       </c>
     </row>
@@ -26422,9 +28618,15 @@
         <v>-1.003912502832854</v>
       </c>
       <c r="W65" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>1.482439099860601</v>
       </c>
     </row>
@@ -26498,9 +28700,15 @@
         <v>0.9372976452567761</v>
       </c>
       <c r="W66" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y66" t="n">
         <v>3.9</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.08442339646907653</v>
       </c>
     </row>
@@ -26574,9 +28782,15 @@
         <v>1.783206304244651</v>
       </c>
       <c r="W67" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.573522145657626</v>
       </c>
     </row>
@@ -26650,9 +28864,15 @@
         <v>2.605940506933865</v>
       </c>
       <c r="W68" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>-0.3884383569649729</v>
       </c>
     </row>
@@ -26726,9 +28946,15 @@
         <v>2.207595169919983</v>
       </c>
       <c r="W69" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.02086459700051597</v>
       </c>
     </row>
@@ -26802,9 +29028,15 @@
         <v>-0.1664932746722196</v>
       </c>
       <c r="W70" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y70" t="n">
         <v>5.5</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.7072959362869223</v>
       </c>
     </row>
@@ -26878,9 +29110,15 @@
         <v>2.42810282643994</v>
       </c>
       <c r="W71" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.7</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.6798898102746526</v>
       </c>
     </row>
@@ -26954,9 +29192,15 @@
         <v>2.944629376628077</v>
       </c>
       <c r="W72" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.5096949546853069</v>
       </c>
     </row>
@@ -27030,9 +29274,15 @@
         <v>0.9625847824106198</v>
       </c>
       <c r="W73" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.09762394751077999</v>
       </c>
     </row>
@@ -27106,9 +29356,15 @@
         <v>3.193807432120631</v>
       </c>
       <c r="W74" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>-0.1045100727625941</v>
       </c>
     </row>
@@ -27182,9 +29438,15 @@
         <v>3.186704010949004</v>
       </c>
       <c r="W75" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.8786217784293378</v>
       </c>
     </row>
@@ -27258,9 +29520,15 @@
         <v>2.302703502910492</v>
       </c>
       <c r="W76" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X76" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>1.407307788785062</v>
       </c>
     </row>
@@ -27334,9 +29602,15 @@
         <v>5.611227921164054</v>
       </c>
       <c r="W77" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.835858064210331</v>
       </c>
     </row>
@@ -27410,9 +29684,15 @@
         <v>4.522509800493581</v>
       </c>
       <c r="W78" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.2926046176816195</v>
       </c>
     </row>
@@ -27486,9 +29766,15 @@
         <v>3.219401540794649</v>
       </c>
       <c r="W79" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.7</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>-1.324006255616792</v>
       </c>
     </row>
@@ -27562,9 +29848,15 @@
         <v>5.789005745763967</v>
       </c>
       <c r="W80" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.5542861517314714</v>
       </c>
     </row>
@@ -27638,9 +29930,15 @@
         <v>3.061017299825585</v>
       </c>
       <c r="W81" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.870053503140498</v>
       </c>
     </row>
@@ -27714,9 +30012,15 @@
         <v>2.270889523983484</v>
       </c>
       <c r="W82" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.06841565101537322</v>
       </c>
     </row>
@@ -27790,9 +30094,15 @@
         <v>3.067810016923482</v>
       </c>
       <c r="W83" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>-0.1570930570968357</v>
       </c>
     </row>
@@ -27866,9 +30176,15 @@
         <v>3.962367202814642</v>
       </c>
       <c r="W84" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.05899602191465735</v>
       </c>
     </row>
@@ -27942,9 +30258,15 @@
         <v>3.609665538721766</v>
       </c>
       <c r="W85" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.3537434252962114</v>
       </c>
     </row>
@@ -28018,9 +30340,15 @@
         <v>1.911960772932828</v>
       </c>
       <c r="W86" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>-0.2841729381919869</v>
       </c>
     </row>
@@ -28094,9 +30422,15 @@
         <v>0.6661756687066653</v>
       </c>
       <c r="W87" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.5922682521558574</v>
       </c>
     </row>
@@ -28170,9 +30504,15 @@
         <v>-3.618095085053826</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.3625624765729431</v>
       </c>
     </row>
@@ -28246,9 +30586,15 @@
         <v>-5.597424557967874</v>
       </c>
       <c r="W89" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.4086285672709357</v>
       </c>
     </row>
@@ -28322,9 +30668,15 @@
         <v>-4.63595220847842</v>
       </c>
       <c r="W90" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>1.714879675359611</v>
       </c>
     </row>
@@ -28398,9 +30750,15 @@
         <v>-4.049252848757594</v>
       </c>
       <c r="W91" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.5</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>0.1031395160449592</v>
       </c>
     </row>
@@ -28474,9 +30832,15 @@
         <v>-3.730490243232172</v>
       </c>
       <c r="W92" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>-0.1542698105039519</v>
       </c>
     </row>
@@ -28550,9 +30914,15 @@
         <v>-6.219049377310645</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.7</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.2567767678574419</v>
       </c>
     </row>
@@ -28626,9 +30996,15 @@
         <v>-8.541775115435177</v>
       </c>
       <c r="W94" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.8</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6534733065439211</v>
       </c>
     </row>
@@ -28702,9 +31078,15 @@
         <v>-8.701137698962981</v>
       </c>
       <c r="W95" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.05454483292428998</v>
       </c>
     </row>
@@ -28778,9 +31160,15 @@
         <v>-4.722798026623292</v>
       </c>
       <c r="W96" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y96" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>-0.1196851139522223</v>
       </c>
     </row>
@@ -28854,9 +31242,15 @@
         <v>-5.319076748081435</v>
       </c>
       <c r="W97" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y97" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.1195313852514801</v>
       </c>
     </row>
@@ -28930,9 +31324,15 @@
         <v>-9.109372942539009</v>
       </c>
       <c r="W98" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y98" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.6884937614143962</v>
       </c>
     </row>
@@ -29006,9 +31406,15 @@
         <v>-13.27970066383171</v>
       </c>
       <c r="W99" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.003524898885789755</v>
+      </c>
+      <c r="Y99" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>-1.077680886300993</v>
       </c>
     </row>
@@ -29080,9 +31486,13 @@
         <v>-8.057675308008756</v>
       </c>
       <c r="W100" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>9.266666666666667</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>-0.008165679270671253</v>
       </c>
     </row>
@@ -29120,9 +31530,7 @@
       <c r="O101" t="n">
         <v>947.0113073551283</v>
       </c>
-      <c r="P101" t="n">
-        <v>-52.83701838548696</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -29135,6 +31543,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/vintage_data/data_20090811.xlsx
+++ b/data/vintage_data/data_20090811.xlsx
@@ -15923,7 +15923,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>9.626799999999999</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -31543,7 +31545,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>9.626799999999999</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
